--- a/example/game_02_click_cookies/upgrades.xlsx
+++ b/example/game_02_click_cookies/upgrades.xlsx
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J4" t="str">
         <v>游标产出翻倍。</v>
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J5" t="str">
         <v>奶奶烘焙速度翻倍。</v>
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="J6" t="str">
         <v>农场效率翻倍。</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="I7">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="J7" t="str">
         <v>矿井深挖翻倍产出。</v>
@@ -691,13 +691,13 @@
         <v>multiplier</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I8">
-        <v>1300000</v>
+        <v>1100000</v>
       </c>
       <c r="J8" t="str">
-        <v>工厂效率翻倍。</v>
+        <v>工厂效率 ×1.8。</v>
       </c>
       <c r="K8" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f3ed.png</v>
@@ -729,13 +729,13 @@
         <v>multiplier</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I9">
-        <v>14000000</v>
+        <v>11000000</v>
       </c>
       <c r="J9" t="str">
-        <v>银行存款利滚利。</v>
+        <v>银行存款利滚利，CPS ×1.8。</v>
       </c>
       <c r="K9" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f4b5.png</v>
@@ -767,13 +767,13 @@
         <v>multiplier</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I10">
-        <v>200000000</v>
+        <v>160000000</v>
       </c>
       <c r="J10" t="str">
-        <v>庙宇产出翻倍。</v>
+        <v>庙宇产出 ×1.8。</v>
       </c>
       <c r="K10" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f3db.png</v>
@@ -805,13 +805,13 @@
         <v>multiplier</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I11">
-        <v>3300000000</v>
+        <v>2400000000</v>
       </c>
       <c r="J11" t="str">
-        <v>巫师塔效率翻倍。</v>
+        <v>巫师塔效率 ×1.8。</v>
       </c>
       <c r="K11" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f52e.png</v>
@@ -843,13 +843,13 @@
         <v>multiplier</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I12">
-        <v>51000000000</v>
+        <v>36000000000</v>
       </c>
       <c r="J12" t="str">
-        <v>宇宙运输翻倍。</v>
+        <v>宇宙运输效率 ×1.6。</v>
       </c>
       <c r="K12" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f6f8.png</v>
@@ -881,13 +881,13 @@
         <v>multiplier</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I13">
-        <v>750000000000</v>
+        <v>540000000000</v>
       </c>
       <c r="J13" t="str">
-        <v>传送门稳定性提升。</v>
+        <v>传送门稳定性提升，产出 ×1.6。</v>
       </c>
       <c r="K13" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/1f300.png</v>
@@ -919,13 +919,13 @@
         <v>multiplier</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I14">
-        <v>10000000000000</v>
+        <v>7200000000000</v>
       </c>
       <c r="J14" t="str">
-        <v>时间机器效率翻倍。</v>
+        <v>时间机器效率 ×1.6。</v>
       </c>
       <c r="K14" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/23f2.png</v>
@@ -957,13 +957,13 @@
         <v>multiplier</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I15">
-        <v>140000000000000</v>
+        <v>95000000000000</v>
       </c>
       <c r="J15" t="str">
-        <v>反物质凝聚器效率翻倍。</v>
+        <v>反物质凝聚器效率 ×1.6。</v>
       </c>
       <c r="K15" t="str">
         <v>https://cdn.jsdelivr.net/gh/twitter/twemoji@14.0.2/assets/72x72/2728.png</v>
